--- a/Documents/20250214_変更点報告資料作成/説明用資料.xlsx
+++ b/Documents/20250214_変更点報告資料作成/説明用資料.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\envir\OneDrive\デスクトップ\work_space\買い物行くけどなんかいる\20250214_変更点報告資料作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\shopping-help-app-doc\CommonFolder\Documents\20250214_変更点報告資料作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="5265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="5265" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="サーバーサイドの変更点" sheetId="1" r:id="rId1"/>
     <sheet name="Seqについて" sheetId="2" r:id="rId2"/>
     <sheet name="フロントサイドの変更点" sheetId="3" r:id="rId3"/>
+    <sheet name="その他変更点" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="145">
   <si>
     <t>目的</t>
     <rPh sb="0" eb="2">
@@ -1032,6 +1032,102 @@
   </si>
   <si>
     <t>that.funcD();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unitsテーブル追加</t>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単位をテーブルで管理することで、追加を容易にしている。</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストを追加するページでは、このテーブルから単位を読み込んで利用する。</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sort_colは、ORDER BYでソートして取得することで、並び替えができる。</t>
+    <rPh sb="24" eb="26">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unit_name:セットをドロップダウンで上位に表示したい場合は、sort_col:1などに設定する！</t>
+    <rPh sb="22" eb="24">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重複はOK！</t>
+    <rPh sb="0" eb="2">
+      <t>チョウフク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1039,7 +1135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1091,6 +1187,22 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1203,11 +1315,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1216,43 +1325,49 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3552,6 +3667,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>191227</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>29028</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="1238250"/>
+          <a:ext cx="5210902" cy="3248478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3887,8 +4045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="75" workbookViewId="0">
-      <selection activeCell="W66" sqref="W66"/>
+    <sheetView topLeftCell="A6" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="22.5" x14ac:dyDescent="0.15"/>
@@ -3897,10 +4055,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3913,15 +4071,15 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -3930,28 +4088,28 @@
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="AB13" s="1" t="s">
         <v>65</v>
       </c>
@@ -3960,19 +4118,19 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
       <c r="AC14" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
@@ -4035,65 +4193,65 @@
       </c>
     </row>
     <row r="33" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="6"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="10"/>
       <c r="AD33" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C34" s="7"/>
-      <c r="D34" s="8" t="s">
+      <c r="C34" s="11"/>
+      <c r="D34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="9"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="12"/>
     </row>
     <row r="35" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="9"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="12"/>
       <c r="AB35" s="1" t="s">
         <v>1</v>
       </c>
@@ -4102,458 +4260,458 @@
       </c>
     </row>
     <row r="36" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C36" s="7"/>
-      <c r="D36" s="8" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="9"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="12"/>
       <c r="AD36" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="37" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="9"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="12"/>
     </row>
     <row r="38" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C38" s="7"/>
-      <c r="D38" s="8" t="s">
+      <c r="C38" s="11"/>
+      <c r="D38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="9"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="12"/>
     </row>
     <row r="39" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="9"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="12"/>
     </row>
     <row r="40" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C40" s="10"/>
-      <c r="D40" s="11" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="12"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="15"/>
     </row>
     <row r="42" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="6"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="10"/>
     </row>
     <row r="43" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C43" s="7"/>
-      <c r="D43" s="8" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="9"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="12"/>
     </row>
     <row r="44" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="9"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="12"/>
     </row>
     <row r="45" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8" t="s">
+      <c r="C45" s="11"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8" t="s">
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="9"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="12"/>
     </row>
     <row r="46" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8" t="s">
+      <c r="C46" s="11"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8" t="s">
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="9"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="12"/>
     </row>
     <row r="47" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8" t="s">
+      <c r="C47" s="11"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="9"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="12"/>
     </row>
     <row r="48" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C48" s="7"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8" t="s">
+      <c r="C48" s="11"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="9"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="12"/>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8" t="s">
+      <c r="C49" s="11"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="9"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="12"/>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C50" s="7"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8" t="s">
+      <c r="C50" s="11"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="9"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="12"/>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8" t="s">
+      <c r="C51" s="11"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="9"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="12"/>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C52" s="7"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="C52" s="11"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8" t="s">
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="9"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="12"/>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C53" s="7"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
+      <c r="C53" s="11"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8" t="s">
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="9"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="12"/>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C54" s="7"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8" t="s">
+      <c r="C54" s="11"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="9"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="12"/>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C55" s="7"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8" t="s">
+      <c r="C55" s="11"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="9"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="12"/>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C56" s="10"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11" t="s">
+      <c r="C56" s="13"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="12"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="15"/>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
@@ -4601,360 +4759,360 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="22.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.75" style="2"/>
+    <col min="1" max="16384" width="3.75" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="T5" s="2" t="s">
+      <c r="T5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="1">
         <v>1</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AA7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AC7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="T8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="1">
         <v>1</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AA8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AC8" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="T9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X9" s="2" t="s">
+      <c r="X9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA9" s="2" t="s">
+      <c r="AA9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="AC9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="T12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12" s="1">
         <v>1</v>
       </c>
-      <c r="AA12" s="2" t="s">
+      <c r="AA12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AC12" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="T13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X13" s="2" t="s">
+      <c r="X13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA13" s="2" t="s">
+      <c r="AA13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC13" s="2" t="s">
+      <c r="AC13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="T14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="X14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA14" s="2" t="s">
+      <c r="AA14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC14" s="2" t="s">
+      <c r="AC14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="4:29" x14ac:dyDescent="0.15">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="4:29" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="4:29" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="4:29" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="T22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X22" s="2">
+      <c r="X22" s="1">
         <v>1</v>
       </c>
-      <c r="AA22" s="2" t="s">
+      <c r="AA22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC22" s="2">
+      <c r="AC22" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="4:29" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="T23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X23" s="2">
+      <c r="X23" s="1">
         <v>1</v>
       </c>
-      <c r="AA23" s="2" t="s">
+      <c r="AA23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC23" s="2">
+      <c r="AC23" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="4:29" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T24" s="2" t="s">
+      <c r="T24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X24" s="3">
+      <c r="X24" s="2">
         <v>2</v>
       </c>
-      <c r="AA24" s="2" t="s">
+      <c r="AA24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AC24" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="4:29" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="4:29" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="4:29" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="N27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T27" s="2" t="s">
+      <c r="T27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X27" s="2">
+      <c r="X27" s="1">
         <v>1</v>
       </c>
-      <c r="AA27" s="2" t="s">
+      <c r="AA27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC27" s="2">
+      <c r="AC27" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="4:29" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="N28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="T28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X28" s="3">
+      <c r="X28" s="2">
         <v>2</v>
       </c>
-      <c r="AA28" s="2" t="s">
+      <c r="AA28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC28" s="3">
+      <c r="AC28" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="4:29" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="T29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="2">
         <v>2</v>
       </c>
-      <c r="AA29" s="2" t="s">
+      <c r="AA29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AC29" s="2">
         <v>2</v>
       </c>
     </row>
@@ -4968,316 +5126,381 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AU67"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="64" workbookViewId="0">
-      <selection activeCell="AU64" sqref="AU64"/>
+    <sheetView zoomScale="64" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="22.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.75" style="8"/>
+    <col min="1" max="16384" width="3.75" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AA6" s="8" t="s">
+      <c r="AA6" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AB8" s="8" t="s">
+      <c r="AB8" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AB11" s="8" t="s">
+      <c r="AB11" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="AK12" s="8" t="s">
+      <c r="AK12" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AB14" s="8" t="s">
+      <c r="AB14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AG14" s="8" t="s">
+      <c r="AG14" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="H27" s="8">
+      <c r="H27" s="4">
         <v>1</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="H31" s="8">
+      <c r="H31" s="4">
         <v>2</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="34" spans="8:41" x14ac:dyDescent="0.15">
-      <c r="H34" s="8">
+      <c r="H34" s="4">
         <v>3</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="35" spans="8:41" x14ac:dyDescent="0.15">
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="38" spans="8:41" x14ac:dyDescent="0.15">
-      <c r="H38" s="8">
+      <c r="H38" s="4">
         <v>4</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="39" spans="8:41" x14ac:dyDescent="0.15">
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="40" spans="8:41" x14ac:dyDescent="0.15">
-      <c r="J40" s="8" t="s">
+      <c r="J40" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="42" spans="8:41" x14ac:dyDescent="0.15">
-      <c r="H42" s="8">
+      <c r="H42" s="4">
         <v>5</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="I42" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="8:41" x14ac:dyDescent="0.15">
-      <c r="H45" s="8">
+      <c r="H45" s="4">
         <v>6</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="I45" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="46" spans="8:41" x14ac:dyDescent="0.15">
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="47" spans="8:41" x14ac:dyDescent="0.15">
-      <c r="AM47" s="8" t="s">
+      <c r="AM47" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AN47" s="8" t="s">
+      <c r="AN47" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="48" spans="8:41" x14ac:dyDescent="0.15">
-      <c r="AO48" s="8" t="s">
+      <c r="AO48" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="49" spans="5:47" x14ac:dyDescent="0.15">
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AP49" s="8" t="s">
+      <c r="AP49" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="50" spans="5:47" x14ac:dyDescent="0.15">
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AQ50" s="8" t="s">
+      <c r="AQ50" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="51" spans="5:47" x14ac:dyDescent="0.15">
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AP51" s="8" t="s">
+      <c r="AP51" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="52" spans="5:47" x14ac:dyDescent="0.15">
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AQ52" s="8" t="s">
+      <c r="AQ52" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="53" spans="5:47" x14ac:dyDescent="0.15">
-      <c r="AP53" s="8" t="s">
+      <c r="AP53" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="54" spans="5:47" x14ac:dyDescent="0.15">
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AN54" s="8" t="s">
+      <c r="AN54" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="56" spans="5:47" x14ac:dyDescent="0.15">
-      <c r="AN56" s="8" t="s">
+      <c r="AN56" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="57" spans="5:47" x14ac:dyDescent="0.15">
-      <c r="AO57" s="8" t="s">
+      <c r="AO57" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="58" spans="5:47" x14ac:dyDescent="0.15">
-      <c r="AN58" s="8" t="s">
+      <c r="AN58" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="59" spans="5:47" x14ac:dyDescent="0.15">
-      <c r="AM59" s="8" t="s">
+      <c r="AM59" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AN59" s="16" t="s">
+      <c r="AN59" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="60" spans="5:47" x14ac:dyDescent="0.15">
-      <c r="AM60" s="8" t="s">
+      <c r="AM60" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AN60" s="8" t="s">
+      <c r="AN60" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="61" spans="5:47" x14ac:dyDescent="0.15">
-      <c r="AO61" s="8" t="s">
+      <c r="AO61" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="62" spans="5:47" x14ac:dyDescent="0.15">
-      <c r="AP62" s="8" t="s">
+      <c r="AP62" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AU62" s="8" t="s">
+      <c r="AU62" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="63" spans="5:47" x14ac:dyDescent="0.15">
-      <c r="AP63" s="8" t="s">
+      <c r="AP63" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AU63" s="8" t="s">
+      <c r="AU63" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="64" spans="5:47" x14ac:dyDescent="0.15">
-      <c r="AP64" s="16" t="s">
+      <c r="AP64" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="40:42" x14ac:dyDescent="0.15">
-      <c r="AP65" s="8" t="s">
+      <c r="AP65" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="66" spans="40:42" x14ac:dyDescent="0.15">
-      <c r="AO66" s="8" t="s">
+      <c r="AO66" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="67" spans="40:42" x14ac:dyDescent="0.15">
-      <c r="AN67" s="8" t="s">
+      <c r="AN67" s="4" t="s">
         <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="19.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="3.875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C20" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C21" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C23" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D24" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F25" s="16" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
